--- a/biology/Botanique/Hyptis_suaveolens/Hyptis_suaveolens.xlsx
+++ b/biology/Botanique/Hyptis_suaveolens/Hyptis_suaveolens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyptis suaveolens, le Chan, est une espèce de plantes à fleurs de la famille des Lamiacées.
 La plante est bien connue comme une  pseudo-céréale en Amérique latine. Elle fait approximativement 2 mètres de haut. Ses fleurs sont pourpres ou blanches, ses feuilles sont ovales, échancrées et pointues. Elle est native du continent américain, dans les régions tropicales et semi-tropicales.
@@ -512,7 +524,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Chan est utilisé communément comme une boisson rafraîchissante, en laissant les graines s'imbiber dans l'eau et en rafraîchissant le mélange. Certaines préparations requièrent l'ajout de citron ou d'autres agrumes (citrus) pour parfaire le goût. Le Chan est aussi utilisé traditionnellement comme traitement en cas de diarrhée.
 Des études ont montré son effet insecticide. Les feuilles et les graines séchées sont moulues en poudre, cette poudre est ensuite étendue sur les grains, pour les conserver.
